--- a/inputapp.xlsx
+++ b/inputapp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47055FA-5F97-40C7-A5E6-33E50BB0EC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B87AD7-317E-41EE-B762-DCB7633CABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD8CF0C8-CA00-40A0-890D-858F84AD006C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>Sasso di PREGUDA</t>
   </si>
@@ -143,6 +143,51 @@
   </si>
   <si>
     <t>NOTELOC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=1S_DLybL8etlI0IbF0e0VdHYAOAhrKZYC</t>
+  </si>
+  <si>
+    <t>Monte Barro</t>
+  </si>
+  <si>
+    <t>sentiero monte Barro</t>
+  </si>
+  <si>
+    <t>giullia xxxxx</t>
+  </si>
+  <si>
+    <t>partenza Galbiate via dell'Oliva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">via s.alessandro 13 </t>
+  </si>
+  <si>
+    <t>via c.Cavour galbiate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vista panoramica lago </t>
+  </si>
+  <si>
+    <t>ferrata difficile</t>
+  </si>
+  <si>
+    <t>bel percorso</t>
+  </si>
+  <si>
+    <t>ottimo panorama</t>
+  </si>
+  <si>
+    <t>una delle località più belle  presenza di massi erratici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eremo del monte Barro - museo archeologico - museo etnografico </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=1OTduecCU2ZD155QU8GYri7BTAaRuODGY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?export=download&amp;id=16_4ULTFFd2KKI-YOcXn0K_ujtIMKk5DM</t>
   </si>
 </sst>
 </file>
@@ -539,15 +584,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F9B34-745C-41A5-B557-6D052BE4DBE6}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="30.21875" customWidth="1"/>
     <col min="7" max="7" width="18.109375" customWidth="1"/>
     <col min="8" max="8" width="14.77734375" style="4" customWidth="1"/>
@@ -556,6 +603,7 @@
     <col min="11" max="12" width="19.88671875" customWidth="1"/>
     <col min="13" max="13" width="36.44140625" customWidth="1"/>
     <col min="14" max="14" width="68.109375" customWidth="1"/>
+    <col min="16" max="16" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -606,6 +654,9 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
@@ -803,7 +854,7 @@
       <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -882,8 +933,11 @@
       <c r="L8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>34</v>
+      <c r="M8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -920,8 +974,11 @@
       <c r="L9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>34</v>
+      <c r="M9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -958,8 +1015,11 @@
       <c r="L10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="7" t="s">
-        <v>34</v>
+      <c r="M10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -996,29 +1056,179 @@
       <c r="L11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>34</v>
+      <c r="M11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="6"/>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45.832830000000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9.3791600000000006</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45.821449999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.3829399999999996</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="6"/>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45.832830000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9.3791600000000006</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45.818550000000002</v>
+      </c>
+      <c r="G13" s="1">
+        <v>9.3788400000000003</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="6"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45.832830000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9.3791600000000006</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45.817659999999997</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.3737499999999994</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="6"/>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45.832830000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>9.3791600000000006</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45.832830000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>9.3791600000000006</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="6"/>
@@ -1101,31 +1311,31 @@
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="4:10" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="6"/>
       <c r="H32" s="3"/>
       <c r="J32" s="3"/>
     </row>
-    <row r="33" spans="4:10" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
+    <row r="33" spans="8:10" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H33" s="3"/>
       <c r="J33" s="3"/>
     </row>
-    <row r="34" spans="4:10" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="3"/>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="4:10" s="1" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="4:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="4:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="8:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="8:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N4" r:id="rId1" xr:uid="{0AD63D1D-AFD2-4DC2-8C02-0A1C8167C705}"/>
+    <hyperlink ref="N6" r:id="rId2" xr:uid="{D5C2340C-C96A-4032-ABF6-C4BC415FD0B6}"/>
+    <hyperlink ref="N11" r:id="rId3" xr:uid="{DD08FEC9-0E4D-47F5-BBA9-6E53E437ACF1}"/>
+    <hyperlink ref="N8" r:id="rId4" xr:uid="{B2CD0091-98A7-452D-A360-43420FF6733D}"/>
+    <hyperlink ref="N9" r:id="rId5" xr:uid="{994087D1-7538-44ED-AADB-54945A9DDA3D}"/>
+    <hyperlink ref="N10" r:id="rId6" xr:uid="{9239FEC4-3CA5-41AF-B9F2-FDAB52902E49}"/>
+    <hyperlink ref="N12:N15" r:id="rId7" display="https://drive.google.com/uc?id=1S_DLybL8etlI0IbF0e0VdHYAOAhrKZYC" xr:uid="{9172A8BB-8984-4D03-923C-EA5BD82F2C0A}"/>
+    <hyperlink ref="N12" r:id="rId8" xr:uid="{691ED102-4386-4304-8BC3-01EEDA60702B}"/>
+    <hyperlink ref="N14" r:id="rId9" xr:uid="{1523251B-9473-43E0-A206-AC38CDC02E03}"/>
+    <hyperlink ref="N13" r:id="rId10" xr:uid="{F1A7F861-3FD9-42CA-A605-1467BF935186}"/>
+    <hyperlink ref="N15" r:id="rId11" xr:uid="{402967E5-6458-4A35-BCD1-DD7F1C3E617D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -1133,31 +1343,31 @@
           <x14:formula1>
             <xm:f>difficolta!$E$1:$E$21</xm:f>
           </x14:formula1>
-          <xm:sqref>I34:I44</xm:sqref>
+          <xm:sqref>I32:I42</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{041E40C8-4F29-4EC0-A5A9-72C49B3A4591}">
           <x14:formula1>
             <xm:f>difficolta!$E$1:$E$17</xm:f>
           </x14:formula1>
-          <xm:sqref>D108:E198 A2:B198</xm:sqref>
+          <xm:sqref>D106:E196 A2:A196</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D492DE5B-3FF1-434D-9026-E1F2007B0F27}">
           <x14:formula1>
             <xm:f>difficolta!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K39 L23:L39</xm:sqref>
+          <xm:sqref>L21:L37 K2:K37</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D4C4811-BF4F-4714-BB85-4F841B01B0FA}">
           <x14:formula1>
             <xm:f>difficolta!$F$1:$F$21</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I33</xm:sqref>
+          <xm:sqref>I2:I31</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE9A54BE-C32C-424E-A934-54F577485B45}">
           <x14:formula1>
             <xm:f>difficolta!$G$1:$G$14</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L22</xm:sqref>
+          <xm:sqref>L2:L20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1170,7 +1380,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1227,6 +1437,9 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
@@ -1237,6 +1450,9 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>

--- a/inputapp.xlsx
+++ b/inputapp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B87AD7-317E-41EE-B762-DCB7633CABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF742609-58D2-4505-B1A2-441AD8CB9DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD8CF0C8-CA00-40A0-890D-858F84AD006C}"/>
   </bookViews>
@@ -184,10 +184,10 @@
     <t xml:space="preserve">eremo del monte Barro - museo archeologico - museo etnografico </t>
   </si>
   <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=1OTduecCU2ZD155QU8GYri7BTAaRuODGY</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/uc?export=download&amp;id=16_4ULTFFd2KKI-YOcXn0K_ujtIMKk5DM</t>
+    <t>https://drive.google.com/uc?id=1OTduecCU2ZD155QU8GYri7BTAaRuODGY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/uc?id=16_4ULTFFd2KKI-YOcXn0K_ujtIMKk5DM</t>
   </si>
 </sst>
 </file>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F9B34-745C-41A5-B557-6D052BE4DBE6}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/inputapp.xlsx
+++ b/inputapp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APP - Copia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF742609-58D2-4505-B1A2-441AD8CB9DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904AF3C2-75AD-45B0-8AD8-6C4B26EFEA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD8CF0C8-CA00-40A0-890D-858F84AD006C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="57">
   <si>
     <t>Sasso di PREGUDA</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>https://drive.google.com/uc?id=16_4ULTFFd2KKI-YOcXn0K_ujtIMKk5DM</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -586,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F9B34-745C-41A5-B557-6D052BE4DBE6}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>24</v>
@@ -726,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>5</v>
@@ -767,7 +776,7 @@
         <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>6</v>
@@ -808,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>7</v>
@@ -1098,7 +1107,7 @@
         <v>17</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>43</v>
@@ -1139,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>44</v>
@@ -1180,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>45</v>
@@ -1221,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>46</v>
@@ -1377,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A3986-4F33-4E28-93DB-607A25D536F1}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,6 +1472,21 @@
         <v>32</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
